--- a/normas/Herramientas para revisar UNE-EN 301549-2022.xlsx
+++ b/normas/Herramientas para revisar UNE-EN 301549-2022.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseR\Mi unidad\curso2023-2024\INAP (IRA Web)\Bloque 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\accesibilidad\normas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F5830A-AB67-4BCE-95C7-2DA1FF0A7E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF672FD-D6AF-4695-AF20-71DE09EDC564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{974282F1-0557-4C69-836B-12F6339D2A22}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{974282F1-0557-4C69-836B-12F6339D2A22}"/>
   </bookViews>
   <sheets>
     <sheet name="Apps" sheetId="49" r:id="rId1"/>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="252">
   <si>
     <t>5.2 Activación de características de accesibilidad</t>
   </si>
@@ -1298,7 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1593,8 +1593,8 @@
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L138" sqref="L138"/>
     </sheetView>
-    <sheetView topLeftCell="A104" workbookViewId="1">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2654,9 +2654,7 @@
       <c r="D50" s="8"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="9" t="s">
-        <v>141</v>
-      </c>
+      <c r="G50" s="9"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -3666,9 +3664,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="9" t="s">
-        <v>141</v>
-      </c>
+      <c r="G99" s="9"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
@@ -5045,8 +5041,8 @@
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A96" workbookViewId="1">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6005,9 +6001,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="9" t="s">
-        <v>141</v>
-      </c>
+      <c r="G43" s="9"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -7109,9 +7103,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="9" t="s">
-        <v>141</v>
-      </c>
+      <c r="G93" s="9"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>

--- a/normas/Herramientas para revisar UNE-EN 301549-2022.xlsx
+++ b/normas/Herramientas para revisar UNE-EN 301549-2022.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\accesibilidad\normas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF672FD-D6AF-4695-AF20-71DE09EDC564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ED71EC-08D4-421C-905E-C1DFB19457E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{974282F1-0557-4C69-836B-12F6339D2A22}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{974282F1-0557-4C69-836B-12F6339D2A22}"/>
   </bookViews>
   <sheets>
     <sheet name="Apps" sheetId="49" r:id="rId1"/>
@@ -372,7 +371,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="252">
   <si>
     <t>5.2 Activación de características de accesibilidad</t>
   </si>
@@ -1589,12 +1588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2800FB-94AF-46B5-9DEA-D6114F4DE48C}">
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L138" sqref="L138"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2738,9 +2734,7 @@
       <c r="F54" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>141</v>
-      </c>
+      <c r="G54" s="9"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -3766,9 +3760,7 @@
       <c r="F104" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G104" s="9" t="s">
-        <v>141</v>
-      </c>
+      <c r="G104" s="9"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
@@ -5037,12 +5029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-    </sheetView>
-    <sheetView topLeftCell="A96" workbookViewId="1">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6089,9 +6078,7 @@
       <c r="F47" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>141</v>
-      </c>
+      <c r="G47" s="9"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -7191,9 +7178,7 @@
       <c r="F97" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G97" s="9" t="s">
-        <v>141</v>
-      </c>
+      <c r="G97" s="9"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
